--- a/data/Study_dates_MeLiDos_IZTECH.xlsx
+++ b/data/Study_dates_MeLiDos_IZTECH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livemanchesterac-my.sharepoint.com/personal/altug_didikoglu_manchester_ac_uk/Documents/PROJECTS/2024-Melidos/Data/IZTECH_Melidos/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zauner/Documents/Arbeit/12-TUM/WP2.2.5_Data_Analysis/DidikogluEtAl_Dataset_2025/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="414" documentId="13_ncr:1_{D6FBF98B-BD76-4E6F-B0F9-2460D7B58D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E04BF59-C92D-F24E-B67A-386A047D178F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C2B96B-8C13-7F45-B0FD-E122257C4730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47940" yWindow="-13900" windowWidth="35280" windowHeight="24280" xr2:uid="{EB2C5E3B-016F-4147-BA32-349D8E1D3953}"/>
+    <workbookView xWindow="1240" yWindow="500" windowWidth="49960" windowHeight="28300" xr2:uid="{EB2C5E3B-016F-4147-BA32-349D8E1D3953}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,102 +170,6 @@
     <t>IZTECH_S009_e</t>
   </si>
   <si>
-    <t>IZTECH_S0010_h</t>
-  </si>
-  <si>
-    <t>IZTECH_S0010_c</t>
-  </si>
-  <si>
-    <t>IZTECH_S0010_w</t>
-  </si>
-  <si>
-    <t>IZTECH_S0010_e</t>
-  </si>
-  <si>
-    <t>IZTECH_S0011_h</t>
-  </si>
-  <si>
-    <t>IZTECH_S0011_c</t>
-  </si>
-  <si>
-    <t>IZTECH_S0011_w</t>
-  </si>
-  <si>
-    <t>IZTECH_S0011_e</t>
-  </si>
-  <si>
-    <t>IZTECH_S0012_h</t>
-  </si>
-  <si>
-    <t>IZTECH_S0012_c</t>
-  </si>
-  <si>
-    <t>IZTECH_S0012_w</t>
-  </si>
-  <si>
-    <t>IZTECH_S0012_e</t>
-  </si>
-  <si>
-    <t>IZTECH_S0013_h</t>
-  </si>
-  <si>
-    <t>IZTECH_S0013_c</t>
-  </si>
-  <si>
-    <t>IZTECH_S0013_w</t>
-  </si>
-  <si>
-    <t>IZTECH_S0013_e</t>
-  </si>
-  <si>
-    <t>IZTECH_S0014_h</t>
-  </si>
-  <si>
-    <t>IZTECH_S0014_c</t>
-  </si>
-  <si>
-    <t>IZTECH_S0014_w</t>
-  </si>
-  <si>
-    <t>IZTECH_S0014_e</t>
-  </si>
-  <si>
-    <t>IZTECH_S0015_h</t>
-  </si>
-  <si>
-    <t>IZTECH_S0015_c</t>
-  </si>
-  <si>
-    <t>IZTECH_S0015_w</t>
-  </si>
-  <si>
-    <t>IZTECH_S0015_e</t>
-  </si>
-  <si>
-    <t>IZTECH_S0016_h</t>
-  </si>
-  <si>
-    <t>IZTECH_S0016_c</t>
-  </si>
-  <si>
-    <t>IZTECH_S0016_w</t>
-  </si>
-  <si>
-    <t>IZTECH_S0016_e</t>
-  </si>
-  <si>
-    <t>IZTECH_S0017_h</t>
-  </si>
-  <si>
-    <t>IZTECH_S0017_c</t>
-  </si>
-  <si>
-    <t>IZTECH_S0017_w</t>
-  </si>
-  <si>
-    <t>IZTECH_S0017_e</t>
-  </si>
-  <si>
     <t>Sampling_sec</t>
   </si>
   <si>
@@ -276,6 +180,102 @@
   </si>
   <si>
     <t>head device crushed at the first night 21/01/2025 07:15, replaced at 21/01/2025 15:28 and study continued with another device, apprx 7h gap expected, IZTECH_S004_h_1 and  IZTECH_S004_h_2 created, environmental measuremet very short record due to device replactement</t>
+  </si>
+  <si>
+    <t>IZTECH_S010_h</t>
+  </si>
+  <si>
+    <t>IZTECH_S010_c</t>
+  </si>
+  <si>
+    <t>IZTECH_S010_w</t>
+  </si>
+  <si>
+    <t>IZTECH_S010_e</t>
+  </si>
+  <si>
+    <t>IZTECH_S011_h</t>
+  </si>
+  <si>
+    <t>IZTECH_S011_c</t>
+  </si>
+  <si>
+    <t>IZTECH_S011_w</t>
+  </si>
+  <si>
+    <t>IZTECH_S011_e</t>
+  </si>
+  <si>
+    <t>IZTECH_S012_h</t>
+  </si>
+  <si>
+    <t>IZTECH_S012_c</t>
+  </si>
+  <si>
+    <t>IZTECH_S012_w</t>
+  </si>
+  <si>
+    <t>IZTECH_S012_e</t>
+  </si>
+  <si>
+    <t>IZTECH_S013_h</t>
+  </si>
+  <si>
+    <t>IZTECH_S013_c</t>
+  </si>
+  <si>
+    <t>IZTECH_S013_w</t>
+  </si>
+  <si>
+    <t>IZTECH_S013_e</t>
+  </si>
+  <si>
+    <t>IZTECH_S014_h</t>
+  </si>
+  <si>
+    <t>IZTECH_S014_c</t>
+  </si>
+  <si>
+    <t>IZTECH_S014_w</t>
+  </si>
+  <si>
+    <t>IZTECH_S014_e</t>
+  </si>
+  <si>
+    <t>IZTECH_S015_h</t>
+  </si>
+  <si>
+    <t>IZTECH_S015_c</t>
+  </si>
+  <si>
+    <t>IZTECH_S015_w</t>
+  </si>
+  <si>
+    <t>IZTECH_S015_e</t>
+  </si>
+  <si>
+    <t>IZTECH_S016_h</t>
+  </si>
+  <si>
+    <t>IZTECH_S016_c</t>
+  </si>
+  <si>
+    <t>IZTECH_S016_w</t>
+  </si>
+  <si>
+    <t>IZTECH_S016_e</t>
+  </si>
+  <si>
+    <t>IZTECH_S017_h</t>
+  </si>
+  <si>
+    <t>IZTECH_S017_c</t>
+  </si>
+  <si>
+    <t>IZTECH_S017_w</t>
+  </si>
+  <si>
+    <t>IZTECH_S017_e</t>
   </si>
 </sst>
 </file>
@@ -351,7 +351,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -686,7 +686,7 @@
   <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -1025,10 +1025,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="D14" s="5">
         <v>45677.586111111108</v>
@@ -1046,7 +1046,7 @@
         <v>45684.599305555559</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1612,7 +1612,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B38" s="4">
         <v>4536</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B39" s="4">
         <v>5716</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B40" s="4">
         <v>4524</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B41" s="4">
         <v>3564</v>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B42" s="4">
         <v>5777</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B43" s="4">
         <v>3771</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B44" s="4">
         <v>3868</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B45" s="4">
         <v>3564</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B46" s="4">
         <v>5777</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B47" s="4">
         <v>3771</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B48" s="4">
         <v>3868</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B49" s="4">
         <v>3564</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B50" s="4">
         <v>4536</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B51" s="4">
         <v>5716</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B52" s="4">
         <v>4524</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B53" s="4">
         <v>3564</v>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B54" s="4">
         <v>5777</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B55" s="4">
         <v>3771</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B56" s="4">
         <v>3868</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B57" s="4">
         <v>3564</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B58" s="4">
         <v>4536</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B59" s="4">
         <v>5716</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B60" s="4">
         <v>4524</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B61" s="4">
         <v>3564</v>
@@ -2200,7 +2200,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B62" s="4">
         <v>5777</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B63" s="4">
         <v>3771</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B64" s="4">
         <v>3868</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B65" s="4">
         <v>3564</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B66" s="4">
         <v>4536</v>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B67" s="4">
         <v>5716</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B68" s="4">
         <v>4524</v>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B69" s="1">
         <v>5777</v>
